--- a/Parsing_on_.net/Files/timer.xlsx
+++ b/Parsing_on_.net/Files/timer.xlsx
@@ -12,12 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>ИМЯ МЕТОДА</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ВЫПОЛНЕНИЯ</t>
+  </si>
+  <si>
+    <t>ДАТА ЗАМЕРА</t>
+  </si>
   <si>
     <t>AngleSharpParsing</t>
   </si>
   <si>
-    <t xml:space="preserve">11.05.2019 03:22:12 </t>
+    <t xml:space="preserve">16.05.2019 22:29:52 </t>
+  </si>
+  <si>
+    <t>CsQueryParsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 22:30:35 </t>
+  </si>
+  <si>
+    <t>FizzlerParsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 22:31:05 </t>
+  </si>
+  <si>
+    <t>HtmlAgilityPackParsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 22:32:41 </t>
+  </si>
+  <si>
+    <t>RestSharpForLetyShopsParsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 22:33:31 </t>
+  </si>
+  <si>
+    <t>WebDriverAndFizzlerMegaBonusParsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 22:35:25 </t>
+  </si>
+  <si>
+    <t>WebDriverParsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05.2019 22:44:16 </t>
   </si>
 </sst>
 </file>
@@ -63,7 +108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -73,11 +118,88 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0">
-        <v>6094</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0">
+        <v>5811</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0">
+        <v>27941</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4772</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0">
+        <v>60654</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4404</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0">
+        <v>57525</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0">
+        <v>403970</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
